--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.2275195370787</v>
+        <v>37.05582933333334</v>
       </c>
       <c r="H2">
-        <v>26.2275195370787</v>
+        <v>111.167488</v>
       </c>
       <c r="I2">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="J2">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N2">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q2">
-        <v>3031.96274456685</v>
+        <v>4374.329942333895</v>
       </c>
       <c r="R2">
-        <v>3031.96274456685</v>
+        <v>39368.96948100506</v>
       </c>
       <c r="S2">
-        <v>0.4314546046195222</v>
+        <v>0.4220405221397891</v>
       </c>
       <c r="T2">
-        <v>0.4314546046195222</v>
+        <v>0.4220405221397892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.2275195370787</v>
+        <v>37.05582933333334</v>
       </c>
       <c r="H3">
-        <v>26.2275195370787</v>
+        <v>111.167488</v>
       </c>
       <c r="I3">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="J3">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q3">
-        <v>1556.727719464936</v>
+        <v>2199.85137401765</v>
       </c>
       <c r="R3">
-        <v>1556.727719464936</v>
+        <v>19798.66236615885</v>
       </c>
       <c r="S3">
-        <v>0.2215255922605171</v>
+        <v>0.2122442602089099</v>
       </c>
       <c r="T3">
-        <v>0.2215255922605171</v>
+        <v>0.21224426020891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.2275195370787</v>
+        <v>37.05582933333334</v>
       </c>
       <c r="H4">
-        <v>26.2275195370787</v>
+        <v>111.167488</v>
       </c>
       <c r="I4">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="J4">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N4">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q4">
-        <v>1380.892669366125</v>
+        <v>2106.441002378354</v>
       </c>
       <c r="R4">
-        <v>1380.892669366125</v>
+        <v>18957.96902140518</v>
       </c>
       <c r="S4">
-        <v>0.1965038989186108</v>
+        <v>0.2032319171667465</v>
       </c>
       <c r="T4">
-        <v>0.1965038989186108</v>
+        <v>0.2032319171667465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.2275195370787</v>
+        <v>37.05582933333334</v>
       </c>
       <c r="H5">
-        <v>26.2275195370787</v>
+        <v>111.167488</v>
       </c>
       <c r="I5">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="J5">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N5">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q5">
-        <v>365.4652509907352</v>
+        <v>711.9626658998045</v>
       </c>
       <c r="R5">
-        <v>365.4652509907352</v>
+        <v>6407.66399309824</v>
       </c>
       <c r="S5">
-        <v>0.05200646533369879</v>
+        <v>0.06869099935796615</v>
       </c>
       <c r="T5">
-        <v>0.05200646533369879</v>
+        <v>0.06869099935796616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.66375168783597</v>
+        <v>1.679068333333333</v>
       </c>
       <c r="H6">
-        <v>1.66375168783597</v>
+        <v>5.037205</v>
       </c>
       <c r="I6">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="J6">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N6">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q6">
-        <v>192.3335955044242</v>
+        <v>198.2090002535094</v>
       </c>
       <c r="R6">
-        <v>192.3335955044242</v>
+        <v>1783.881002281585</v>
       </c>
       <c r="S6">
-        <v>0.0273694706678421</v>
+        <v>0.01912343857518087</v>
       </c>
       <c r="T6">
-        <v>0.0273694706678421</v>
+        <v>0.01912343857518087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.66375168783597</v>
+        <v>1.679068333333333</v>
       </c>
       <c r="H7">
-        <v>1.66375168783597</v>
+        <v>5.037205</v>
       </c>
       <c r="I7">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="J7">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q7">
-        <v>98.75155624607382</v>
+        <v>99.67934456213111</v>
       </c>
       <c r="R7">
-        <v>98.75155624607382</v>
+        <v>897.1141010591799</v>
       </c>
       <c r="S7">
-        <v>0.01405255184354158</v>
+        <v>0.009617180958029943</v>
       </c>
       <c r="T7">
-        <v>0.01405255184354158</v>
+        <v>0.009617180958029945</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.66375168783597</v>
+        <v>1.679068333333333</v>
       </c>
       <c r="H8">
-        <v>1.66375168783597</v>
+        <v>5.037205</v>
       </c>
       <c r="I8">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="J8">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N8">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q8">
-        <v>87.5973995989293</v>
+        <v>95.44674742839611</v>
       </c>
       <c r="R8">
-        <v>87.5973995989293</v>
+        <v>859.020726855565</v>
       </c>
       <c r="S8">
-        <v>0.01246529215353326</v>
+        <v>0.009208814984754548</v>
       </c>
       <c r="T8">
-        <v>0.01246529215353326</v>
+        <v>0.00920881498475455</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.66375168783597</v>
+        <v>1.679068333333333</v>
       </c>
       <c r="H9">
-        <v>1.66375168783597</v>
+        <v>5.037205</v>
       </c>
       <c r="I9">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="J9">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N9">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q9">
-        <v>23.18341341130721</v>
+        <v>32.26034846162778</v>
       </c>
       <c r="R9">
-        <v>23.18341341130721</v>
+        <v>290.34313615465</v>
       </c>
       <c r="S9">
-        <v>0.003299047946756833</v>
+        <v>0.003112516542794813</v>
       </c>
       <c r="T9">
-        <v>0.003299047946756833</v>
+        <v>0.003112516542794814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.20223309767602</v>
+        <v>0.08951333333333333</v>
       </c>
       <c r="H10">
-        <v>1.20223309767602</v>
+        <v>0.26854</v>
       </c>
       <c r="I10">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="J10">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N10">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q10">
-        <v>138.9809645279516</v>
+        <v>10.56678156399778</v>
       </c>
       <c r="R10">
-        <v>138.9809645279516</v>
+        <v>95.10103407598</v>
       </c>
       <c r="S10">
-        <v>0.01977728031371762</v>
+        <v>0.001019495572441279</v>
       </c>
       <c r="T10">
-        <v>0.01977728031371762</v>
+        <v>0.001019495572441278</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.20223309767602</v>
+        <v>0.08951333333333333</v>
       </c>
       <c r="H11">
-        <v>1.20223309767602</v>
+        <v>0.26854</v>
       </c>
       <c r="I11">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="J11">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q11">
-        <v>71.35823827200225</v>
+        <v>5.314036492204444</v>
       </c>
       <c r="R11">
-        <v>71.35823827200225</v>
+        <v>47.82632842984</v>
       </c>
       <c r="S11">
-        <v>0.01015442572147791</v>
+        <v>0.0005127045205564119</v>
       </c>
       <c r="T11">
-        <v>0.01015442572147791</v>
+        <v>0.0005127045205564119</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.20223309767602</v>
+        <v>0.08951333333333333</v>
       </c>
       <c r="H12">
-        <v>1.20223309767602</v>
+        <v>0.26854</v>
       </c>
       <c r="I12">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="J12">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N12">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q12">
-        <v>63.29820359501132</v>
+        <v>5.088391192024444</v>
       </c>
       <c r="R12">
-        <v>63.29820359501132</v>
+        <v>45.79552072822</v>
       </c>
       <c r="S12">
-        <v>0.009007466023172792</v>
+        <v>0.0004909339953418585</v>
       </c>
       <c r="T12">
-        <v>0.009007466023172792</v>
+        <v>0.0004909339953418585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08951333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.26854</v>
+      </c>
+      <c r="I13">
+        <v>0.002189066424308031</v>
+      </c>
+      <c r="J13">
+        <v>0.002189066424308031</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.21324333333333</v>
+      </c>
+      <c r="N13">
+        <v>57.63973</v>
+      </c>
+      <c r="O13">
+        <v>0.07580050295684103</v>
+      </c>
+      <c r="P13">
+        <v>0.07580050295684104</v>
+      </c>
+      <c r="Q13">
+        <v>1.719841454911111</v>
+      </c>
+      <c r="R13">
+        <v>15.4785730942</v>
+      </c>
+      <c r="S13">
+        <v>0.0001659323359684823</v>
+      </c>
+      <c r="T13">
+        <v>0.0001659323359684823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.066688666666666</v>
+      </c>
+      <c r="H14">
+        <v>6.200066</v>
+      </c>
+      <c r="I14">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="J14">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>118.0470123333333</v>
+      </c>
+      <c r="N14">
+        <v>354.141037</v>
+      </c>
+      <c r="O14">
+        <v>0.4657216250363638</v>
+      </c>
+      <c r="P14">
+        <v>0.4657216250363638</v>
+      </c>
+      <c r="Q14">
+        <v>243.9664225231602</v>
+      </c>
+      <c r="R14">
+        <v>2195.697802708442</v>
+      </c>
+      <c r="S14">
+        <v>0.02353816874895251</v>
+      </c>
+      <c r="T14">
+        <v>0.02353816874895251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.066688666666666</v>
+      </c>
+      <c r="H15">
+        <v>6.200066</v>
+      </c>
+      <c r="I15">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="J15">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.36586533333332</v>
+      </c>
+      <c r="N15">
+        <v>178.097596</v>
+      </c>
+      <c r="O15">
+        <v>0.2342114953037475</v>
+      </c>
+      <c r="P15">
+        <v>0.2342114953037476</v>
+      </c>
+      <c r="Q15">
+        <v>122.6907610712595</v>
+      </c>
+      <c r="R15">
+        <v>1104.216849641336</v>
+      </c>
+      <c r="S15">
+        <v>0.01183734961625125</v>
+      </c>
+      <c r="T15">
+        <v>0.01183734961625125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.20223309767602</v>
-      </c>
-      <c r="H13">
-        <v>1.20223309767602</v>
-      </c>
-      <c r="I13">
-        <v>0.0413230762559773</v>
-      </c>
-      <c r="J13">
-        <v>0.0413230762559773</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>13.9344191689216</v>
-      </c>
-      <c r="N13">
-        <v>13.9344191689216</v>
-      </c>
-      <c r="O13">
-        <v>0.05768941747806459</v>
-      </c>
-      <c r="P13">
-        <v>0.05768941747806459</v>
-      </c>
-      <c r="Q13">
-        <v>16.75241992176873</v>
-      </c>
-      <c r="R13">
-        <v>16.75241992176873</v>
-      </c>
-      <c r="S13">
-        <v>0.002383904197608972</v>
-      </c>
-      <c r="T13">
-        <v>0.002383904197608972</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.066688666666666</v>
+      </c>
+      <c r="H16">
+        <v>6.200066</v>
+      </c>
+      <c r="I16">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="J16">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>56.84506433333333</v>
+      </c>
+      <c r="N16">
+        <v>170.535193</v>
+      </c>
+      <c r="O16">
+        <v>0.2242663767030476</v>
+      </c>
+      <c r="P16">
+        <v>0.2242663767030477</v>
+      </c>
+      <c r="Q16">
+        <v>117.4810502136375</v>
+      </c>
+      <c r="R16">
+        <v>1057.329451922738</v>
+      </c>
+      <c r="S16">
+        <v>0.01133471055620472</v>
+      </c>
+      <c r="T16">
+        <v>0.01133471055620472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.066688666666666</v>
+      </c>
+      <c r="H17">
+        <v>6.200066</v>
+      </c>
+      <c r="I17">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="J17">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.21324333333333</v>
+      </c>
+      <c r="N17">
+        <v>57.63973</v>
+      </c>
+      <c r="O17">
+        <v>0.07580050295684103</v>
+      </c>
+      <c r="P17">
+        <v>0.07580050295684104</v>
+      </c>
+      <c r="Q17">
+        <v>39.70779224690889</v>
+      </c>
+      <c r="R17">
+        <v>357.37013022218</v>
+      </c>
+      <c r="S17">
+        <v>0.003831054720111582</v>
+      </c>
+      <c r="T17">
+        <v>0.003831054720111583</v>
       </c>
     </row>
   </sheetData>
